--- a/seronetTemplates/template/subjectHuman.xlsx
+++ b/seronetTemplates/template/subjectHuman.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liualg/Documents/GitHub/SeroNet/seronetTemplates/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CD3839-CC29-4B48-8D9A-9F6F39CA4286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC76195-6745-0349-9527-7C4724B742DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19840" yWindow="7220" windowWidth="16000" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="34940" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subjectHumans.txt" sheetId="1" r:id="rId1"/>
@@ -183,10 +183,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Please choose from the drop down list.  The template column is associated with the following database table column subject.ethnicity and has data type varchar(50)</t>
         </r>
@@ -267,10 +266,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>This describes what substance(s) the host is exposed to and/or develops immune reactions to as part of the exposure process. Please select an exposure material from the list provided if the exposure material matches yours or enter a exposure material if there is not an appropriate one provided. This exposure material is visible when the result is shared.  The value provided by the user is further checked against the pref mapping table lk_exposure_material_pref_map.  The template column is associated with the following database table column immune_exposure.exposure_material_reported and has data type varchar(200)</t>
         </r>
@@ -337,7 +335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="765">
   <si>
     <t>subjecthumans</t>
   </si>
@@ -2608,13 +2606,37 @@
   </si>
   <si>
     <t>White</t>
+  </si>
+  <si>
+    <t>PMID33184236_organism_subject-01</t>
+  </si>
+  <si>
+    <t>PMID33184236_aoc-01</t>
+  </si>
+  <si>
+    <t>PMID33184236_organism_subject-02</t>
+  </si>
+  <si>
+    <t>PMID33184236_aoc-02</t>
+  </si>
+  <si>
+    <t>PMID33184236_organism_subject-03</t>
+  </si>
+  <si>
+    <t>PMID33184236_aoc-03</t>
+  </si>
+  <si>
+    <t>PMID33184236_organism_subject-04</t>
+  </si>
+  <si>
+    <t>PMID33184236_aoc-04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2633,6 +2655,12 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3050,8 +3078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3141,148 +3169,144 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+      <c r="B4" t="s">
+        <v>757</v>
+      </c>
+      <c r="C4" t="s">
+        <v>758</v>
+      </c>
+      <c r="D4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>484</v>
+      </c>
+      <c r="H4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" t="s">
+        <v>721</v>
+      </c>
+      <c r="L4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
+      <c r="B5" t="s">
+        <v>759</v>
+      </c>
+      <c r="C5" t="s">
+        <v>760</v>
+      </c>
+      <c r="D5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>89</v>
+      </c>
+      <c r="G5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K5" t="s">
+        <v>721</v>
+      </c>
+      <c r="L5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+      <c r="B6" t="s">
+        <v>761</v>
+      </c>
+      <c r="C6" t="s">
+        <v>762</v>
+      </c>
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>484</v>
+      </c>
+      <c r="H6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K6" t="s">
+        <v>721</v>
+      </c>
+      <c r="L6" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
+      <c r="B7" t="s">
+        <v>763</v>
+      </c>
+      <c r="C7" t="s">
+        <v>764</v>
+      </c>
+      <c r="D7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>484</v>
+      </c>
+      <c r="H7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" t="s">
+        <v>686</v>
+      </c>
+      <c r="L7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>

--- a/seronetTemplates/template/subjectHuman.xlsx
+++ b/seronetTemplates/template/subjectHuman.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liualg/Documents/GitHub/SeroNet/seronetTemplates/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC76195-6745-0349-9527-7C4724B742DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8261617-AE45-3049-8660-24122B363665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="34940" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="900" yWindow="500" windowWidth="34940" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subjectHumans.txt" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,19 @@
     <definedName name="lookuprace1082">lookup!$A$745:$A$753</definedName>
     <definedName name="lookupsubject_location1080">lookup!$A$480:$A$739</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -307,10 +319,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>The NCBI Disease Ontology ID associated with the disease. If the Disease Reported is not a preferred value, then the Disease Ontology ID must be provided. If the disease is a preferred value, then the Disease Ontology ID will be the DOID associated with the preferred value.  The template column is associated with the following database table column immune_exposure.disease_ontology_id and has data type varchar(100)</t>
         </r>
@@ -3076,10 +3087,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7926,12 +7938,14 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:A753"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/seronetTemplates/template/subjectHuman.xlsx
+++ b/seronetTemplates/template/subjectHuman.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liualg/Documents/GitHub/SeroNet/seronetTemplates/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8261617-AE45-3049-8660-24122B363665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6524EB1B-F93C-A64E-9A0D-888F4BB16ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="900" yWindow="500" windowWidth="34940" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="34940" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subjectHumans.txt" sheetId="1" r:id="rId1"/>
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="757">
   <si>
     <t>subjecthumans</t>
   </si>
@@ -2617,30 +2617,6 @@
   </si>
   <si>
     <t>White</t>
-  </si>
-  <si>
-    <t>PMID33184236_organism_subject-01</t>
-  </si>
-  <si>
-    <t>PMID33184236_aoc-01</t>
-  </si>
-  <si>
-    <t>PMID33184236_organism_subject-02</t>
-  </si>
-  <si>
-    <t>PMID33184236_aoc-02</t>
-  </si>
-  <si>
-    <t>PMID33184236_organism_subject-03</t>
-  </si>
-  <si>
-    <t>PMID33184236_aoc-03</t>
-  </si>
-  <si>
-    <t>PMID33184236_organism_subject-04</t>
-  </si>
-  <si>
-    <t>PMID33184236_aoc-04</t>
   </si>
 </sst>
 </file>
@@ -3088,10 +3064,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V200"/>
+  <dimension ref="A1:V196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3180,145 +3156,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>757</v>
-      </c>
-      <c r="C4" t="s">
-        <v>758</v>
-      </c>
-      <c r="D4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>89</v>
-      </c>
-      <c r="G4" t="s">
-        <v>484</v>
-      </c>
-      <c r="H4" t="s">
-        <v>125</v>
-      </c>
-      <c r="K4" t="s">
-        <v>721</v>
-      </c>
-      <c r="L4" t="s">
-        <v>125</v>
-      </c>
-      <c r="M4" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>759</v>
-      </c>
-      <c r="C5" t="s">
-        <v>760</v>
-      </c>
-      <c r="D5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>89</v>
-      </c>
-      <c r="G5" t="s">
-        <v>484</v>
-      </c>
-      <c r="H5" t="s">
-        <v>125</v>
-      </c>
-      <c r="K5" t="s">
-        <v>721</v>
-      </c>
-      <c r="L5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M5" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>761</v>
-      </c>
-      <c r="C6" t="s">
-        <v>762</v>
-      </c>
-      <c r="D6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>89</v>
-      </c>
-      <c r="G6" t="s">
-        <v>484</v>
-      </c>
-      <c r="H6" t="s">
-        <v>125</v>
-      </c>
-      <c r="K6" t="s">
-        <v>721</v>
-      </c>
-      <c r="L6" t="s">
-        <v>125</v>
-      </c>
-      <c r="M6" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>31</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>763</v>
-      </c>
-      <c r="C7" t="s">
-        <v>764</v>
-      </c>
-      <c r="D7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>89</v>
-      </c>
-      <c r="G7" t="s">
-        <v>484</v>
-      </c>
-      <c r="H7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K7" t="s">
-        <v>686</v>
-      </c>
-      <c r="L7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>31</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
@@ -7808,132 +7740,36 @@
       <c r="U196" s="1"/>
       <c r="V196" s="1"/>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
-      <c r="H197" s="1"/>
-      <c r="I197" s="1"/>
-      <c r="J197" s="1"/>
-      <c r="K197" s="1"/>
-      <c r="L197" s="1"/>
-      <c r="M197" s="1"/>
-      <c r="N197" s="1"/>
-      <c r="O197" s="1"/>
-      <c r="P197" s="1"/>
-      <c r="Q197" s="1"/>
-      <c r="R197" s="1"/>
-      <c r="S197" s="1"/>
-      <c r="T197" s="1"/>
-      <c r="U197" s="1"/>
-      <c r="V197" s="1"/>
-    </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
-      <c r="H198" s="1"/>
-      <c r="I198" s="1"/>
-      <c r="J198" s="1"/>
-      <c r="K198" s="1"/>
-      <c r="L198" s="1"/>
-      <c r="M198" s="1"/>
-      <c r="N198" s="1"/>
-      <c r="O198" s="1"/>
-      <c r="P198" s="1"/>
-      <c r="Q198" s="1"/>
-      <c r="R198" s="1"/>
-      <c r="S198" s="1"/>
-      <c r="T198" s="1"/>
-      <c r="U198" s="1"/>
-      <c r="V198" s="1"/>
-    </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
-      <c r="H199" s="1"/>
-      <c r="I199" s="1"/>
-      <c r="J199" s="1"/>
-      <c r="K199" s="1"/>
-      <c r="L199" s="1"/>
-      <c r="M199" s="1"/>
-      <c r="N199" s="1"/>
-      <c r="O199" s="1"/>
-      <c r="P199" s="1"/>
-      <c r="Q199" s="1"/>
-      <c r="R199" s="1"/>
-      <c r="S199" s="1"/>
-      <c r="T199" s="1"/>
-      <c r="U199" s="1"/>
-      <c r="V199" s="1"/>
-    </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="1"/>
-      <c r="J200" s="1"/>
-      <c r="K200" s="1"/>
-      <c r="L200" s="1"/>
-      <c r="M200" s="1"/>
-      <c r="N200" s="1"/>
-      <c r="O200" s="1"/>
-      <c r="P200" s="1"/>
-      <c r="Q200" s="1"/>
-      <c r="R200" s="1"/>
-      <c r="S200" s="1"/>
-      <c r="T200" s="1"/>
-      <c r="U200" s="1"/>
-      <c r="V200" s="1"/>
-    </row>
   </sheetData>
   <dataValidations count="10">
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Exposure Process Reported" error="Preferred value was not selected" promptTitle="Exposure Process Reported" prompt="Please choose preferred value from the list" sqref="Q4:Q201" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Exposure Process Reported" error="Preferred value was not selected" promptTitle="Exposure Process Reported" prompt="Please choose preferred value from the list" sqref="Q4:Q197" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>lookupexposure_process_reported1073</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Exposure Material Reported" error="Preferred value was not selected" promptTitle="Exposure Material Reported" prompt="Please choose preferred value from the list" sqref="R4:R201" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Exposure Material Reported" error="Preferred value was not selected" promptTitle="Exposure Material Reported" prompt="Please choose preferred value from the list" sqref="R4:R197" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>lookupexposure_material_reported1074</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Gender" error="Required value was not selected" promptTitle="Gender" prompt="Please choose required value from the list" sqref="D4:D201" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Gender" error="Required value was not selected" promptTitle="Gender" prompt="Please choose required value from the list" sqref="D4:D197" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>lookupgender1075</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Disease Reported" error="Preferred value was not selected" promptTitle="Disease Reported" prompt="Please choose preferred value from the list" sqref="T4:T201" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Disease Reported" error="Preferred value was not selected" promptTitle="Disease Reported" prompt="Please choose preferred value from the list" sqref="T4:T197" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>lookupdisease_reported1076</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Disease Stage Reported" error="Preferred value was not selected" promptTitle="Disease Stage Reported" prompt="Please choose preferred value from the list" sqref="V4:V201" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Disease Stage Reported" error="Preferred value was not selected" promptTitle="Disease Stage Reported" prompt="Please choose preferred value from the list" sqref="V4:V197" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>lookupdisease_stage_reported1077</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Age Unit" error="Required value was not selected" promptTitle="Age Unit" prompt="Please choose required value from the list" sqref="G4:G201" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Age Unit" error="Required value was not selected" promptTitle="Age Unit" prompt="Please choose required value from the list" sqref="G4:G197" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>lookupage_unit1078</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Age Event" error="Required value was not selected" promptTitle="Age Event" prompt="Please choose required value from the list" sqref="H4:H201" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Age Event" error="Required value was not selected" promptTitle="Age Event" prompt="Please choose required value from the list" sqref="H4:H197" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>lookupage_event1079</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Subject Location" error="Required value was not selected" promptTitle="Subject Location" prompt="Please choose required value from the list" sqref="K4:K201" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Subject Location" error="Required value was not selected" promptTitle="Subject Location" prompt="Please choose required value from the list" sqref="K4:K197" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>lookupsubject_location1080</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Ethnicity" error="Required value was not selected" promptTitle="Ethnicity" prompt="Please choose required value from the list" sqref="L4:L201" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Ethnicity" error="Required value was not selected" promptTitle="Ethnicity" prompt="Please choose required value from the list" sqref="L4:L197" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>lookupethnicity1081</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Race" error="Required value was not selected" promptTitle="Race" prompt="Please choose required value from the list" sqref="M4:M201" xr:uid="{00000000-0002-0000-0000-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Race" error="Required value was not selected" promptTitle="Race" prompt="Please choose required value from the list" sqref="M4:M197" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>lookuprace1082</formula1>
     </dataValidation>
   </dataValidations>
